--- a/Peaks-dataset-article/redes-ensemble-s/Teste04/content/results/metrics_18_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste04/content/results/metrics_18_8.xlsx
@@ -518,386 +518,386 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_1</t>
+          <t>model_18_8_11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9675587760020218</v>
+        <v>0.9965412313743982</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7500373921536504</v>
+        <v>0.8069975448351427</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9850401424076463</v>
+        <v>0.9545211263531113</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9532480335147164</v>
+        <v>0.996400348511177</v>
       </c>
       <c r="F2" t="n">
-        <v>0.972438471150233</v>
+        <v>0.9936858414664936</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2169346142525813</v>
+        <v>0.02312880172556453</v>
       </c>
       <c r="H2" t="n">
-        <v>1.671501109640517</v>
+        <v>1.290608306381991</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1789174438246194</v>
+        <v>0.04615317304653926</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6369888159504642</v>
+        <v>0.05160973807258993</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4079531298875418</v>
+        <v>0.04888140783967249</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9641156992752635</v>
+        <v>0.3867755366143595</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4657624010722434</v>
+        <v>0.1520815627404076</v>
       </c>
       <c r="N2" t="n">
-        <v>1.005854055458282</v>
+        <v>1.002515468091347</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4855908707469754</v>
+        <v>0.1585559897185017</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0563185753102</v>
+        <v>121.5333532203047</v>
       </c>
       <c r="Q2" t="n">
-        <v>508.4198230796177</v>
+        <v>191.0092752377921</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_2</t>
+          <t>model_18_8_10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9688223953265712</v>
+        <v>0.9965862660182286</v>
       </c>
       <c r="C3" t="n">
-        <v>0.749972752414711</v>
+        <v>0.8069973749492717</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9814831789195055</v>
+        <v>0.9572988303788541</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9527524942105058</v>
+        <v>0.9966878270479571</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9707733625149808</v>
+        <v>0.9941340967406875</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2084847860108874</v>
+        <v>0.02282765485490458</v>
       </c>
       <c r="H3" t="n">
-        <v>1.671933355872444</v>
+        <v>1.290609442409593</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2214581439046058</v>
+        <v>0.04333428497187934</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6437404676643096</v>
+        <v>0.04748803572702106</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4325993054700552</v>
+        <v>0.04541121481903795</v>
       </c>
       <c r="L3" t="n">
-        <v>0.902284731485916</v>
+        <v>0.3911643901541531</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4566013425417049</v>
+        <v>0.1510882353292426</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005626033926032</v>
+        <v>1.002482715623106</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4760398069887865</v>
+        <v>0.1575203743029722</v>
       </c>
       <c r="P3" t="n">
-        <v>317.1357784183567</v>
+        <v>121.5595650915942</v>
       </c>
       <c r="Q3" t="n">
-        <v>508.4992829226642</v>
+        <v>191.0354871090816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_0</t>
+          <t>model_18_8_12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9655517058022344</v>
+        <v>0.9964822406176006</v>
       </c>
       <c r="C4" t="n">
-        <v>0.749494331240439</v>
+        <v>0.8069798582917367</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9883195629988295</v>
+        <v>0.9517882856385449</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9534538949888708</v>
+        <v>0.9961034531453042</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9738581261156264</v>
+        <v>0.9932317830557377</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2303559019202684</v>
+        <v>0.02352327318789767</v>
       </c>
       <c r="H4" t="n">
-        <v>1.675132560467727</v>
+        <v>1.290726576379187</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1396961112833108</v>
+        <v>0.04892653263735301</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6341839829877119</v>
+        <v>0.0558664535116349</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3869400471355113</v>
+        <v>0.05239652616326537</v>
       </c>
       <c r="L4" t="n">
-        <v>1.032963688982152</v>
+        <v>0.3825132743410135</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4799540623020795</v>
+        <v>0.1533729871519026</v>
       </c>
       <c r="N4" t="n">
-        <v>1.006216233539446</v>
+        <v>1.002558370459927</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5003867003761543</v>
+        <v>0.1599023927408111</v>
       </c>
       <c r="P4" t="n">
-        <v>316.9362595327896</v>
+        <v>121.4995299989646</v>
       </c>
       <c r="Q4" t="n">
-        <v>508.2997640370971</v>
+        <v>190.975452016452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_3</t>
+          <t>model_18_8_9</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9695074027511177</v>
+        <v>0.9966147867603811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7494437935187865</v>
+        <v>0.8069763469194914</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9777762113211862</v>
+        <v>0.9601090804486099</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9520297683925127</v>
+        <v>0.9969630590725146</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9689430883401587</v>
+        <v>0.9945731742125719</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2039041382087764</v>
+        <v>0.02263693652080564</v>
       </c>
       <c r="H5" t="n">
-        <v>1.675470506445122</v>
+        <v>1.290750056941559</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2657928685460344</v>
+        <v>0.04048236830436176</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6535875029372573</v>
+        <v>0.04354191684837127</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4596901857416458</v>
+        <v>0.04201207226306633</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8467334147917572</v>
+        <v>0.3956816069234761</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4515574583691165</v>
+        <v>0.1504557626706456</v>
       </c>
       <c r="N5" t="n">
-        <v>1.005502423563708</v>
+        <v>1.002461973265177</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4707811942246914</v>
+        <v>0.1568609759738999</v>
       </c>
       <c r="P5" t="n">
-        <v>317.1802106126437</v>
+        <v>121.576344694976</v>
       </c>
       <c r="Q5" t="n">
-        <v>508.5437151169513</v>
+        <v>191.0522667124634</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_4</t>
+          <t>model_18_8_13</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9697470705547291</v>
+        <v>0.9964115754365706</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7485683440384137</v>
+        <v>0.8069470506608512</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9740185500647546</v>
+        <v>0.9491102743864194</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9511337678046835</v>
+        <v>0.9957997043277185</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9670125836963294</v>
+        <v>0.9927749826504486</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2023014785024583</v>
+        <v>0.02399581157882854</v>
       </c>
       <c r="H6" t="n">
-        <v>1.68132464115145</v>
+        <v>1.290945961157983</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3107338810262051</v>
+        <v>0.05164424982840719</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6657953820157103</v>
+        <v>0.06022142980979516</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4882646315209577</v>
+        <v>0.05593287178933287</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7968079814921103</v>
+        <v>0.3783856877919788</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4497793664703376</v>
+        <v>0.1549058151872567</v>
       </c>
       <c r="N6" t="n">
-        <v>1.005459175238244</v>
+        <v>1.002609763318858</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4689274052726237</v>
+        <v>0.1615004764390218</v>
       </c>
       <c r="P6" t="n">
-        <v>317.1959924527404</v>
+        <v>121.4597519628259</v>
       </c>
       <c r="Q6" t="n">
-        <v>508.5594969570479</v>
+        <v>190.9356739803133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_5</t>
+          <t>model_18_8_8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9696491676117274</v>
+        <v>0.996623945030193</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7474429514797132</v>
+        <v>0.8069310428704347</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9702863356356713</v>
+        <v>0.962937596550562</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9501112790872749</v>
+        <v>0.9972228092595801</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9650341434160877</v>
+        <v>0.9949991069267387</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2029561559331119</v>
+        <v>0.02257569512840308</v>
       </c>
       <c r="H7" t="n">
-        <v>1.688850146373436</v>
+        <v>1.291053005326207</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3553705536238255</v>
+        <v>0.03761191478055841</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6797266436585735</v>
+        <v>0.03981776767438009</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5175485986411995</v>
+        <v>0.03871469057666081</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7519272268025833</v>
+        <v>0.4003198768812664</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4505065548170325</v>
+        <v>0.1502521052378404</v>
       </c>
       <c r="N7" t="n">
-        <v>1.005476841934726</v>
+        <v>1.002455312705314</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4696855515327248</v>
+        <v>0.1566486484225512</v>
       </c>
       <c r="P7" t="n">
-        <v>317.1895306077852</v>
+        <v>121.5817627763946</v>
       </c>
       <c r="Q7" t="n">
-        <v>508.5530351120927</v>
+        <v>191.057684793882</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_6</t>
+          <t>model_18_8_14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9693004668643329</v>
+        <v>0.9963312142356812</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7461457822969776</v>
+        <v>0.8069014276975615</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9666369098846803</v>
+        <v>0.9464944743456387</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9490024167803734</v>
+        <v>0.9954913312524815</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9630493967418365</v>
+        <v>0.9923179822675077</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2052879194365577</v>
+        <v>0.02453318729920504</v>
       </c>
       <c r="H8" t="n">
-        <v>1.697524322671303</v>
+        <v>1.291251042123575</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3990170872063912</v>
+        <v>0.05429883342418083</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6948347330294786</v>
+        <v>0.06464270606141048</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5469259101179349</v>
+        <v>0.05947076555346301</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7115842796079461</v>
+        <v>0.3743924630618218</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4530870991725076</v>
+        <v>0.1566307354870207</v>
       </c>
       <c r="N8" t="n">
-        <v>1.005539765377865</v>
+        <v>1.002668207828596</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4723759550038757</v>
+        <v>0.1632988301670239</v>
       </c>
       <c r="P8" t="n">
-        <v>317.1666836003079</v>
+        <v>121.4154569888224</v>
       </c>
       <c r="Q8" t="n">
-        <v>508.5301881046154</v>
+        <v>190.8913790063098</v>
       </c>
     </row>
     <row r="9">
@@ -907,987 +907,987 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9687701879751827</v>
+        <v>0.9966104572995913</v>
       </c>
       <c r="C9" t="n">
-        <v>0.744739708858053</v>
+        <v>0.8068575677924212</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9631119792343913</v>
+        <v>0.9657654272961795</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9478402742012719</v>
+        <v>0.9974635163682979</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9610904245761888</v>
+        <v>0.9954073372930717</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2088338968100158</v>
+        <v>0.02266588764504177</v>
       </c>
       <c r="H9" t="n">
-        <v>1.706926742231765</v>
+        <v>1.291544333511205</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4411746797981219</v>
+        <v>0.03474215677462909</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7106687584423034</v>
+        <v>0.03636664723349566</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5759217191202126</v>
+        <v>0.03555435259601426</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6753062378974213</v>
+        <v>0.4050735015097973</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4569834754233634</v>
+        <v>0.1505519433452845</v>
       </c>
       <c r="N9" t="n">
-        <v>1.005635454801471</v>
+        <v>1.002465121963934</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4764382080583413</v>
+        <v>0.1569612512589796</v>
       </c>
       <c r="P9" t="n">
-        <v>317.1324321902108</v>
+        <v>121.5737884633317</v>
       </c>
       <c r="Q9" t="n">
-        <v>508.4959366945183</v>
+        <v>191.0497104808191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_8</t>
+          <t>model_18_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9681137957153427</v>
+        <v>0.9962429188103272</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7432748162977704</v>
+        <v>0.8068450845295477</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9597412254460235</v>
+        <v>0.943945573895412</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9466532716948285</v>
+        <v>0.9951803513327521</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9591822990400368</v>
+        <v>0.9918629547886194</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2132231948739736</v>
+        <v>0.02512361921510972</v>
       </c>
       <c r="H10" t="n">
-        <v>1.716722485527585</v>
+        <v>1.29162780914752</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4814883424017797</v>
+        <v>0.05688552553250145</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7268414967879224</v>
+        <v>0.0691013577539141</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6041649195948511</v>
+        <v>0.06299338597164908</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6426891555021857</v>
+        <v>0.3705361632751965</v>
       </c>
       <c r="M10" t="n">
-        <v>0.461760971579424</v>
+        <v>0.158504319231716</v>
       </c>
       <c r="N10" t="n">
-        <v>1.005753901525051</v>
+        <v>1.002732422683398</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4814190921165458</v>
+        <v>0.1652521762505839</v>
       </c>
       <c r="P10" t="n">
-        <v>317.0908315972802</v>
+        <v>121.3678937414512</v>
       </c>
       <c r="Q10" t="n">
-        <v>508.4543361015877</v>
+        <v>190.8438157589387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_9</t>
+          <t>model_18_8_16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9673748445361819</v>
+        <v>0.9961482217546659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7417901652173902</v>
+        <v>0.8067798639541357</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9565440077156102</v>
+        <v>0.9414699204833562</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9454639965444457</v>
+        <v>0.9948684196490247</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9573432371979391</v>
+        <v>0.9914118468190759</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2181645648115789</v>
+        <v>0.02575685886235724</v>
       </c>
       <c r="H11" t="n">
-        <v>1.726650354138277</v>
+        <v>1.292063939435613</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5197265422071486</v>
+        <v>0.05939788459435959</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7430451995801911</v>
+        <v>0.07357365529263331</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6313858708936699</v>
+        <v>0.06648566329125861</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6133482078242544</v>
+        <v>0.3700138830741218</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4670808975023265</v>
+        <v>0.1604894353605783</v>
       </c>
       <c r="N11" t="n">
-        <v>1.005887246098734</v>
+        <v>1.002801293269334</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4869654982997511</v>
+        <v>0.1673218028828088</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0450112330365</v>
+        <v>121.3181086475084</v>
       </c>
       <c r="Q11" t="n">
-        <v>508.408515737344</v>
+        <v>190.7940306649958</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_10</t>
+          <t>model_18_8_6</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9665874302031209</v>
+        <v>0.996570693004706</v>
       </c>
       <c r="C12" t="n">
-        <v>0.740316005279636</v>
+        <v>0.8067515241288508</v>
       </c>
       <c r="D12" t="n">
-        <v>0.953532278374831</v>
+        <v>0.9685695218048902</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9442905515331399</v>
+        <v>0.997681244029725</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9555863996968688</v>
+        <v>0.9957927286928258</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2234300080824681</v>
+        <v>0.02293179166803781</v>
       </c>
       <c r="H12" t="n">
-        <v>1.736508068429922</v>
+        <v>1.292253447977787</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5557463312871763</v>
+        <v>0.03189648693451358</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7590332190054269</v>
+        <v>0.0332449929254884</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6573897751463016</v>
+        <v>0.03257082373950617</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5869596998956281</v>
+        <v>0.4099218313616678</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4726838352244215</v>
+        <v>0.1514324657001853</v>
       </c>
       <c r="N12" t="n">
-        <v>1.006029335903196</v>
+        <v>1.002494041451123</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4928069646803556</v>
+        <v>0.1578792592734611</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9973141538325</v>
+        <v>121.550462097496</v>
       </c>
       <c r="Q12" t="n">
-        <v>508.36081865814</v>
+        <v>191.0263841149834</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_11</t>
+          <t>model_18_8_17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9657781616145277</v>
+        <v>0.9960484892202085</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7388750332264905</v>
+        <v>0.8067073923881452</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9507117365143575</v>
+        <v>0.9390688368733104</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9431476625773501</v>
+        <v>0.9945571092575496</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9539208666272795</v>
+        <v>0.9909661790422892</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2288415908607298</v>
+        <v>0.02642377077949971</v>
       </c>
       <c r="H13" t="n">
-        <v>1.746143855184372</v>
+        <v>1.292548557131093</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5894795494519127</v>
+        <v>0.06183456823375826</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7746049165711453</v>
+        <v>0.07803704509945193</v>
       </c>
       <c r="K13" t="n">
-        <v>0.682042233011529</v>
+        <v>0.06993582505747142</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5632408016529854</v>
+        <v>0.3718499479301592</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4783739027797501</v>
+        <v>0.1625539011512788</v>
       </c>
       <c r="N13" t="n">
-        <v>1.006175369332717</v>
+        <v>1.002873826021667</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4987392701915782</v>
+        <v>0.1694741572562527</v>
       </c>
       <c r="P13" t="n">
-        <v>316.9494505155174</v>
+        <v>121.2669825312798</v>
       </c>
       <c r="Q13" t="n">
-        <v>508.3129550198249</v>
+        <v>190.7429045487672</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_12</t>
+          <t>model_18_8_18</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9649669096796791</v>
+        <v>0.9959449256896682</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7374839058800986</v>
+        <v>0.8066290300042885</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9480829764325571</v>
+        <v>0.9367447388306646</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9420455401924592</v>
+        <v>0.9942477465343971</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9523515774918525</v>
+        <v>0.9905274015224361</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2342664362845338</v>
+        <v>0.02711630058508917</v>
       </c>
       <c r="H14" t="n">
-        <v>1.755446330155247</v>
+        <v>1.293072566752768</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6209190889903312</v>
+        <v>0.06419312486759644</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7896211754745015</v>
+        <v>0.08247251035515686</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7052701322324163</v>
+        <v>0.07333264551818786</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5419083562162886</v>
+        <v>0.3735551679991226</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4840107811655995</v>
+        <v>0.164670278390149</v>
       </c>
       <c r="N14" t="n">
-        <v>1.006321760659306</v>
+        <v>1.002949144952969</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5046161221602601</v>
+        <v>0.1716806330556865</v>
       </c>
       <c r="P14" t="n">
-        <v>316.9025923895122</v>
+        <v>121.2152404686378</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.2660968938197</v>
+        <v>190.6911624861252</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_13</t>
+          <t>model_18_8_5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9641688670114327</v>
+        <v>0.9965004703566351</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7361542614883285</v>
+        <v>0.8066080044818638</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9456434129315495</v>
+        <v>0.9713215422038393</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9409923651110096</v>
+        <v>0.9978714612608257</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9508812530463157</v>
+        <v>0.9961492428111429</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2396029512817463</v>
+        <v>0.02340137083903328</v>
       </c>
       <c r="H15" t="n">
-        <v>1.764337668325463</v>
+        <v>1.293213164518036</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6500958684451845</v>
+        <v>0.02910366328882528</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8039705344117849</v>
+        <v>0.03051776738588199</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7270332014284847</v>
+        <v>0.02981084995589258</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5227167885962218</v>
+        <v>0.4148695822732287</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4894925446641106</v>
+        <v>0.1529750660697137</v>
       </c>
       <c r="N15" t="n">
-        <v>1.006465768358839</v>
+        <v>1.002545112467902</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5103312556797176</v>
+        <v>0.1594875313343433</v>
       </c>
       <c r="P15" t="n">
-        <v>316.8575441905604</v>
+        <v>121.5099213509394</v>
       </c>
       <c r="Q15" t="n">
-        <v>508.2210486948679</v>
+        <v>190.9858433684269</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_14</t>
+          <t>model_18_8_19</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9633948835378079</v>
+        <v>0.9958385621427536</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7348939416517898</v>
+        <v>0.8065460593647751</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9433876246221741</v>
+        <v>0.9344996369850511</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9399932251813251</v>
+        <v>0.9939414718909106</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9495100447031317</v>
+        <v>0.990096597929233</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2447785823337416</v>
+        <v>0.02782755411306644</v>
       </c>
       <c r="H16" t="n">
-        <v>1.772765432875637</v>
+        <v>1.293627391801238</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6770747267418835</v>
+        <v>0.06647151405533733</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8175836721816976</v>
+        <v>0.08686370049611715</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7473291994617905</v>
+        <v>0.07666773538430541</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5054536337462129</v>
+        <v>0.3751506359250039</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4947510306545521</v>
+        <v>0.166815928834948</v>
       </c>
       <c r="N16" t="n">
-        <v>1.006605434549569</v>
+        <v>1.003026500259816</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5158136063053389</v>
+        <v>0.1739176282820293</v>
       </c>
       <c r="P16" t="n">
-        <v>316.8148024452764</v>
+        <v>121.1634571880184</v>
       </c>
       <c r="Q16" t="n">
-        <v>508.1783069495839</v>
+        <v>190.6393792055058</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_15</t>
+          <t>model_18_8_20</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.962652766984887</v>
+        <v>0.9957302944423415</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7337073439048403</v>
+        <v>0.8064595166828166</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9413084823663622</v>
+        <v>0.932332811342154</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9390514833987211</v>
+        <v>0.9936391828258219</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9482366200675142</v>
+        <v>0.9896746628329015</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2497411191402564</v>
+        <v>0.02855154072424859</v>
       </c>
       <c r="H17" t="n">
-        <v>1.780700217473268</v>
+        <v>1.294206103113988</v>
       </c>
       <c r="I17" t="n">
-        <v>0.701940927202759</v>
+        <v>0.06867046646640149</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8304147684569916</v>
+        <v>0.09119774770037598</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7661778478298754</v>
+        <v>0.07993416929093086</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4899277654012369</v>
+        <v>0.3766401894537862</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4997410520862344</v>
+        <v>0.1689720116594715</v>
       </c>
       <c r="N17" t="n">
-        <v>1.006739350318517</v>
+        <v>1.00310524040557</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5210160632801362</v>
+        <v>0.1761655000160996</v>
       </c>
       <c r="P17" t="n">
-        <v>316.7746608421673</v>
+        <v>121.1120887570263</v>
       </c>
       <c r="Q17" t="n">
-        <v>508.1381653464749</v>
+        <v>190.5880107745137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_16</t>
+          <t>model_18_8_4</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.961947601026119</v>
+        <v>0.9963951526138238</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7325967013705633</v>
+        <v>0.8064214057057328</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9393971855048806</v>
+        <v>0.973987947461045</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9381687717831974</v>
+        <v>0.9980292765263654</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9470581747558688</v>
+        <v>0.9964701567877177</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2544565671535283</v>
+        <v>0.02410563107015587</v>
       </c>
       <c r="H18" t="n">
-        <v>1.788127089214017</v>
+        <v>1.294460951393231</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7247997242691882</v>
+        <v>0.02639772417073023</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8424415872000115</v>
+        <v>0.02825510264079435</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7836206557345999</v>
+        <v>0.02732647664040425</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4759558461499229</v>
+        <v>0.4198904124921566</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5044368812384046</v>
+        <v>0.1552598823590816</v>
       </c>
       <c r="N18" t="n">
-        <v>1.006866598311076</v>
+        <v>1.002621707189946</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5259118036010207</v>
+        <v>0.1618696169833713</v>
       </c>
       <c r="P18" t="n">
-        <v>316.7372502341403</v>
+        <v>121.4506196228303</v>
       </c>
       <c r="Q18" t="n">
-        <v>508.1007547384478</v>
+        <v>190.9265416403177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_17</t>
+          <t>model_18_8_21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9612825533673042</v>
+        <v>0.9956209427660395</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7315622298566663</v>
+        <v>0.8063703463516413</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9376445835883008</v>
+        <v>0.9302448975424125</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9373451512645223</v>
+        <v>0.9933418141424476</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9459710399708968</v>
+        <v>0.9892624655433409</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2589037439102865</v>
+        <v>0.02928277588719848</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79504460499075</v>
+        <v>1.294802385529148</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7457605558159303</v>
+        <v>0.07078933703593066</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8536632982514269</v>
+        <v>0.09546124929423459</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7997119270336787</v>
+        <v>0.08312521742735308</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4633901012722016</v>
+        <v>0.3780286385992909</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5088258483118625</v>
+        <v>0.1711221081193148</v>
       </c>
       <c r="N19" t="n">
-        <v>1.006986606911163</v>
+        <v>1.003184768897426</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5304876180892101</v>
+        <v>0.1784071305335516</v>
       </c>
       <c r="P19" t="n">
-        <v>316.7025978629876</v>
+        <v>121.0615115789841</v>
       </c>
       <c r="Q19" t="n">
-        <v>508.0661023672951</v>
+        <v>190.5374335964715</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_18</t>
+          <t>model_18_8_22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9606591213589617</v>
+        <v>0.99551115675571</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7306027586829926</v>
+        <v>0.8062794204167419</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9360406384866931</v>
+        <v>0.9282355779163073</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9365798344256795</v>
+        <v>0.9930499570879551</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9449707978340224</v>
+        <v>0.9888605007549229</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2630726366207125</v>
+        <v>0.03001691544379007</v>
       </c>
       <c r="H20" t="n">
-        <v>1.801460593147064</v>
+        <v>1.295410407674496</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7649434762309861</v>
+        <v>0.07282844814341916</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8640906300547828</v>
+        <v>0.09964572831498728</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8145170531428845</v>
+        <v>0.0862370500897065</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4520785207043805</v>
+        <v>0.3793307230929486</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5129060699784245</v>
+        <v>0.173253904555684</v>
       </c>
       <c r="N20" t="n">
-        <v>1.007099105920187</v>
+        <v>1.003264613268575</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5347415432393409</v>
+        <v>0.180629681957644</v>
       </c>
       <c r="P20" t="n">
-        <v>316.6706502001335</v>
+        <v>121.0119884161926</v>
       </c>
       <c r="Q20" t="n">
-        <v>508.0341547044411</v>
+        <v>190.48791043368</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_19</t>
+          <t>model_18_8_23</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9600779497735994</v>
+        <v>0.9954015691580937</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7297160191831686</v>
+        <v>0.8061873916239433</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9345759420342197</v>
+        <v>0.9263039636261085</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9358713483341415</v>
+        <v>0.9927643248917059</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9440529694668456</v>
+        <v>0.988469386185615</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2669589336880794</v>
+        <v>0.03074972821365447</v>
       </c>
       <c r="H21" t="n">
-        <v>1.807390224265446</v>
+        <v>1.296025804635695</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7824610056351076</v>
+        <v>0.07478870180508421</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8737436511038164</v>
+        <v>0.103740958889195</v>
       </c>
       <c r="K21" t="n">
-        <v>0.828102328369462</v>
+        <v>0.0892648851801511</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4419061188136684</v>
+        <v>0.3805419656104008</v>
       </c>
       <c r="M21" t="n">
-        <v>0.516680688325081</v>
+        <v>0.1753560042132988</v>
       </c>
       <c r="N21" t="n">
-        <v>1.007203978988223</v>
+        <v>1.003344313339568</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5386768549035517</v>
+        <v>0.1828212723496297</v>
       </c>
       <c r="P21" t="n">
-        <v>316.641320877646</v>
+        <v>120.963748246698</v>
       </c>
       <c r="Q21" t="n">
-        <v>508.0048253819535</v>
+        <v>190.4396702641855</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_20</t>
+          <t>model_18_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9595384139811833</v>
+        <v>0.9962494947822356</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7288990375021061</v>
+        <v>0.8061854083605905</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9332400787258921</v>
+        <v>0.976526407944486</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9352177438671798</v>
+        <v>0.9981493141095867</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9432124498523552</v>
+        <v>0.9967477074511442</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2705668120162997</v>
+        <v>0.02507964566067909</v>
       </c>
       <c r="H22" t="n">
-        <v>1.812853384528567</v>
+        <v>1.296039066726867</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7984377117601192</v>
+        <v>0.02382162681894218</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8826489179152331</v>
+        <v>0.02653407263326294</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8405433148376762</v>
+        <v>0.02517780281425185</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4327540936588832</v>
+        <v>0.4252892822118293</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5201603714397125</v>
+        <v>0.1583655444239027</v>
       </c>
       <c r="N22" t="n">
-        <v>1.007301338830463</v>
+        <v>1.002727640158374</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5423046753323101</v>
+        <v>0.1651074935118985</v>
       </c>
       <c r="P22" t="n">
-        <v>316.6144724333575</v>
+        <v>121.3713973833586</v>
       </c>
       <c r="Q22" t="n">
-        <v>507.977976937665</v>
+        <v>190.847319400846</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_21</t>
+          <t>model_18_8_24</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.959039344070119</v>
+        <v>0.9952926155117657</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7281484680375784</v>
+        <v>0.8060949060235182</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9320236835971885</v>
+        <v>0.9244473756173234</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9346158186580366</v>
+        <v>0.9924852681482323</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9424439815915174</v>
+        <v>0.9880892832261441</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2739040948095923</v>
+        <v>0.03147830174833494</v>
       </c>
       <c r="H23" t="n">
-        <v>1.817872445993918</v>
+        <v>1.296644256271594</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8129855980461239</v>
+        <v>0.07667281679682501</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8908500622753024</v>
+        <v>0.1077419143935743</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8519178301607131</v>
+        <v>0.09220747328343826</v>
       </c>
       <c r="L23" t="n">
-        <v>0.424517849576573</v>
+        <v>0.381680744200241</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5233584763903154</v>
+        <v>0.1774212550635773</v>
       </c>
       <c r="N23" t="n">
-        <v>1.007391396558776</v>
+        <v>1.003423552355079</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5456389302316501</v>
+        <v>0.1849744452042631</v>
       </c>
       <c r="P23" t="n">
-        <v>316.5899545056162</v>
+        <v>120.9169136077829</v>
       </c>
       <c r="Q23" t="n">
-        <v>507.9534590099237</v>
+        <v>190.3928356252704</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_22</t>
+          <t>model_18_8_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9585793742530332</v>
+        <v>0.9960575828526035</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7274604248925376</v>
+        <v>0.8058929429681044</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9309173823976591</v>
+        <v>0.978887311375406</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9340636077365039</v>
+        <v>0.9982254871711828</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9417428732027165</v>
+        <v>0.9969729881475476</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2769799150944118</v>
+        <v>0.02636296161780264</v>
       </c>
       <c r="H24" t="n">
-        <v>1.822473393672954</v>
+        <v>1.2979947841531</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8262167789913928</v>
+        <v>0.0214257190961731</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8983738566203532</v>
+        <v>0.02544194697349797</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8622953155012669</v>
+        <v>0.02343377983147985</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4171038882236284</v>
+        <v>0.4337577057537411</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5262888133852095</v>
+        <v>0.1623667503456377</v>
       </c>
       <c r="N24" t="n">
-        <v>1.007474398631031</v>
+        <v>1.002867212470834</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5486940177390506</v>
+        <v>0.1692790390533599</v>
       </c>
       <c r="P24" t="n">
-        <v>316.5676205682162</v>
+        <v>121.27159044587</v>
       </c>
       <c r="Q24" t="n">
-        <v>507.9311250725237</v>
+        <v>190.7475124633574</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_23</t>
+          <t>model_18_8_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.958156590867811</v>
+        <v>0.9958127552793615</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7268310569486769</v>
+        <v>0.8055360048060453</v>
       </c>
       <c r="D25" t="n">
-        <v>0.929912529431999</v>
+        <v>0.9810097030371305</v>
       </c>
       <c r="E25" t="n">
-        <v>0.933557771226614</v>
+        <v>0.9982512686011821</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9411040941204141</v>
+        <v>0.9971359633455923</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2798070695381307</v>
+        <v>0.02800012472739863</v>
       </c>
       <c r="H25" t="n">
-        <v>1.826681980011523</v>
+        <v>1.300381631286339</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8382346556941355</v>
+        <v>0.01927185947342477</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9052658062798553</v>
+        <v>0.02507230761992927</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8717502309869953</v>
+        <v>0.02217209831349139</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4104355350498882</v>
+        <v>0.4423917473314977</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5289679286479764</v>
+        <v>0.1673323780007881</v>
       </c>
       <c r="N25" t="n">
-        <v>1.007550690369718</v>
+        <v>1.003045268887737</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5514871884850867</v>
+        <v>0.1744560637580564</v>
       </c>
       <c r="P25" t="n">
-        <v>316.5473099013441</v>
+        <v>121.1510926285338</v>
       </c>
       <c r="Q25" t="n">
-        <v>507.9108144056516</v>
+        <v>190.6270146460212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_24</t>
+          <t>model_18_8_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9577688749480648</v>
+        <v>0.9955075042934787</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7262564157198189</v>
+        <v>0.8051055264788338</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9290005352018098</v>
+        <v>0.9828196845164613</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9330951416738932</v>
+        <v>0.9982193805075915</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9405227167743906</v>
+        <v>0.997225072232979</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2823997276787413</v>
+        <v>0.03004133947554877</v>
       </c>
       <c r="H26" t="n">
-        <v>1.830524608554876</v>
+        <v>1.303260241842572</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8491419571467682</v>
+        <v>0.0174350420298974</v>
       </c>
       <c r="J26" t="n">
-        <v>0.911569067365227</v>
+        <v>0.02552950081292332</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8803555122559976</v>
+        <v>0.02148225692870955</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4044357743772614</v>
+        <v>0.4511662891237886</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5314129539997509</v>
+        <v>0.1733243764608682</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00762065414471</v>
+        <v>1.003267269604743</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5540363036279864</v>
+        <v>0.1807031539977289</v>
       </c>
       <c r="P26" t="n">
-        <v>316.5288634753479</v>
+        <v>121.0103617266966</v>
       </c>
       <c r="Q26" t="n">
-        <v>507.8923679796554</v>
+        <v>190.486283744184</v>
       </c>
     </row>
   </sheetData>
